--- a/src/controllers/helper/fix_003.xlsx
+++ b/src/controllers/helper/fix_003.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jirapatmalai/Works/WMA201AM1/src/controllers/helper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C013F76-BFF3-A04E-A094-B206598EC66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66E5BA2-FDB9-AC48-AB6A-D1804BA20731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="500" windowWidth="35280" windowHeight="28180" xr2:uid="{6837962F-3A8F-004D-A4EA-70A1B2908246}"/>
+    <workbookView xWindow="2220" yWindow="500" windowWidth="35280" windowHeight="28180" xr2:uid="{6837962F-3A8F-004D-A4EA-70A1B2908246}"/>
   </bookViews>
   <sheets>
     <sheet name="Receipts" sheetId="1" r:id="rId1"/>
@@ -7657,15 +7657,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9475D1A-5576-F14E-86E6-6CDF8A86935C}">
   <dimension ref="A1:N1077"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A650" zoomScale="96" workbookViewId="0">
+      <selection activeCell="F1008" sqref="F1008"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" customWidth="1"/>
     <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="68.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="57" bestFit="1" customWidth="1"/>
